--- a/Файлы/1 курс/Информационные технологии в цифровой экономике/1 семестр/Лабораторные работы/Дима/Лаб2_Пузынин_Д.А..xlsx
+++ b/Файлы/1 курс/Информационные технологии в цифровой экономике/1 семестр/Лабораторные работы/Дима/Лаб2_Пузынин_Д.А..xlsx
@@ -5,18 +5,20 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luvid\OneDrive\Desktop\python\Codespace\Файлы\1 курс\Информационные технологии в цифровой экономике\1 семестр\Лабораторные работы\30.09.24\Дима\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luvid\OneDrive\Desktop\python\Codespace\Файлы\1 курс\Информационные технологии в цифровой экономике\1 семестр\Лабораторные работы\Дима\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{651F0085-10F3-42F3-848D-596C1272BABF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B716CBAC-53A7-4A12-8C3F-93C69C6BB247}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8436" yWindow="0" windowWidth="14700" windowHeight="12336" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
     <sheet name="Лист4" sheetId="4" r:id="rId4"/>
+    <sheet name="Лист5" sheetId="5" r:id="rId5"/>
+    <sheet name="Лист6" sheetId="6" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="Зарплата">Лист2!$A$1:$F$8</definedName>
@@ -47,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="125">
   <si>
     <t>Стаж</t>
   </si>
@@ -242,16 +244,197 @@
   </si>
   <si>
     <t>Итоги по месяцам</t>
+  </si>
+  <si>
+    <t>Отчество</t>
+  </si>
+  <si>
+    <t>Отдел</t>
+  </si>
+  <si>
+    <t>Премия</t>
+  </si>
+  <si>
+    <t>Ставки</t>
+  </si>
+  <si>
+    <t>Маметов</t>
+  </si>
+  <si>
+    <t>Петрова</t>
+  </si>
+  <si>
+    <t>Чарушин</t>
+  </si>
+  <si>
+    <t>Яровцева</t>
+  </si>
+  <si>
+    <t>Анна</t>
+  </si>
+  <si>
+    <t>Андрей</t>
+  </si>
+  <si>
+    <t>Иван</t>
+  </si>
+  <si>
+    <t>Сергей</t>
+  </si>
+  <si>
+    <t>Ольга</t>
+  </si>
+  <si>
+    <t>Мария</t>
+  </si>
+  <si>
+    <t>Семен</t>
+  </si>
+  <si>
+    <t>Елена</t>
+  </si>
+  <si>
+    <t>Семеновна</t>
+  </si>
+  <si>
+    <t>Викторович</t>
+  </si>
+  <si>
+    <t>Андреевич</t>
+  </si>
+  <si>
+    <t>Олегович</t>
+  </si>
+  <si>
+    <t>Александрович</t>
+  </si>
+  <si>
+    <t>Сергеевна</t>
+  </si>
+  <si>
+    <t>Алексеевич</t>
+  </si>
+  <si>
+    <t>Павлована</t>
+  </si>
+  <si>
+    <t>Максимович</t>
+  </si>
+  <si>
+    <t>Викторовна</t>
+  </si>
+  <si>
+    <t>Бухгалтерия</t>
+  </si>
+  <si>
+    <t>Сбыт</t>
+  </si>
+  <si>
+    <t>Склад</t>
+  </si>
+  <si>
+    <t>Кадров</t>
+  </si>
+  <si>
+    <t>ИТОГО</t>
+  </si>
+  <si>
+    <t>Кол-во сотрудников</t>
+  </si>
+  <si>
+    <t>&gt;6000</t>
+  </si>
+  <si>
+    <t>Суммы окладов</t>
+  </si>
+  <si>
+    <t>Прибыль/убытки</t>
+  </si>
+  <si>
+    <t>Квартал 1</t>
+  </si>
+  <si>
+    <t>Квартал 2</t>
+  </si>
+  <si>
+    <t>Квартал 3</t>
+  </si>
+  <si>
+    <t>Квартал 4</t>
+  </si>
+  <si>
+    <t>Магазин 1</t>
+  </si>
+  <si>
+    <t>Магазин 2</t>
+  </si>
+  <si>
+    <t>Магазин 3</t>
+  </si>
+  <si>
+    <t>Магазин 4</t>
+  </si>
+  <si>
+    <t>Магазин 5</t>
+  </si>
+  <si>
+    <t>Поуступило/Реализовано</t>
+  </si>
+  <si>
+    <t>Апрель</t>
+  </si>
+  <si>
+    <t>Май</t>
+  </si>
+  <si>
+    <t>Июнь</t>
+  </si>
+  <si>
+    <t>Июль</t>
+  </si>
+  <si>
+    <t>Август</t>
+  </si>
+  <si>
+    <t>Сентябрь</t>
+  </si>
+  <si>
+    <t>Октябрь</t>
+  </si>
+  <si>
+    <t>Ноябрь</t>
+  </si>
+  <si>
+    <t>Декабрь</t>
+  </si>
+  <si>
+    <t>Склад 1</t>
+  </si>
+  <si>
+    <t>Склад 2</t>
+  </si>
+  <si>
+    <t>Склад 3</t>
+  </si>
+  <si>
+    <t>Склад 4</t>
+  </si>
+  <si>
+    <t>ремонт</t>
+  </si>
+  <si>
+    <t>учет</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;₽&quot;_-;\-* #,##0.00\ &quot;₽&quot;_-;_-* &quot;-&quot;??\ &quot;₽&quot;_-;_-@_-"/>
-    <numFmt numFmtId="171" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
-    <numFmt numFmtId="173" formatCode="0.0%"/>
+    <numFmt numFmtId="164" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
+    <numFmt numFmtId="165" formatCode="0.0%"/>
+    <numFmt numFmtId="166" formatCode="_-* #,##0.00\ [$₽-419]_-;\-* #,##0.00\ [$₽-419]_-;_-* &quot;-&quot;??\ [$₽-419]_-;_-@_-"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -490,7 +673,7 @@
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -498,9 +681,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -550,22 +730,165 @@
     </xf>
     <xf numFmtId="44" fontId="3" fillId="4" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="173" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="171" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Денежный" xfId="1" builtinId="4"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Процентный" xfId="2" builtinId="5"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="13">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
@@ -852,231 +1175,231 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="14.6640625" customWidth="1"/>
-    <col min="4" max="7" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" customWidth="1"/>
+    <col min="4" max="7" width="10.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="13"/>
-      <c r="B1" s="11"/>
-      <c r="C1" s="14" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="12"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="12"/>
-      <c r="B2" s="6" t="s">
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="11"/>
+      <c r="B2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="8" t="s">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="9">
+      <c r="C3" s="8">
         <v>0.05</v>
       </c>
-      <c r="D3" s="9">
+      <c r="D3" s="8">
         <v>0.1</v>
       </c>
-      <c r="E3" s="9">
+      <c r="E3" s="8">
         <v>0.15</v>
       </c>
-      <c r="F3" s="9">
+      <c r="F3" s="8">
         <v>0.2</v>
       </c>
-      <c r="G3" s="9">
+      <c r="G3" s="8">
         <v>0.25</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="9">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="8">
         <v>10</v>
       </c>
-      <c r="B4" s="10">
+      <c r="B4" s="9">
         <v>560</v>
       </c>
-      <c r="C4" s="15">
+      <c r="C4" s="14">
         <f>C$3*$B4</f>
         <v>28</v>
       </c>
-      <c r="D4" s="15">
+      <c r="D4" s="14">
         <f t="shared" ref="D4:G4" si="0">D$3*$B4</f>
         <v>56</v>
       </c>
-      <c r="E4" s="15">
+      <c r="E4" s="14">
         <f t="shared" si="0"/>
         <v>84</v>
       </c>
-      <c r="F4" s="15">
+      <c r="F4" s="14">
         <f t="shared" si="0"/>
         <v>112</v>
       </c>
-      <c r="G4" s="15">
+      <c r="G4" s="14">
         <f t="shared" si="0"/>
         <v>140</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="9">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="8">
         <v>11</v>
       </c>
-      <c r="B5" s="10">
+      <c r="B5" s="9">
         <v>603</v>
       </c>
-      <c r="C5" s="15">
+      <c r="C5" s="14">
         <f t="shared" ref="C5:G9" si="1">C$3*$B5</f>
         <v>30.150000000000002</v>
       </c>
-      <c r="D5" s="15">
+      <c r="D5" s="14">
         <f t="shared" si="1"/>
         <v>60.300000000000004</v>
       </c>
-      <c r="E5" s="15">
+      <c r="E5" s="14">
         <f t="shared" si="1"/>
         <v>90.45</v>
       </c>
-      <c r="F5" s="15">
+      <c r="F5" s="14">
         <f t="shared" si="1"/>
         <v>120.60000000000001</v>
       </c>
-      <c r="G5" s="15">
+      <c r="G5" s="14">
         <f t="shared" si="1"/>
         <v>150.75</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="9">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="8">
         <v>12</v>
       </c>
-      <c r="B6" s="10">
+      <c r="B6" s="9">
         <v>650</v>
       </c>
-      <c r="C6" s="15">
+      <c r="C6" s="14">
         <f t="shared" si="1"/>
         <v>32.5</v>
       </c>
-      <c r="D6" s="15">
+      <c r="D6" s="14">
         <f t="shared" si="1"/>
         <v>65</v>
       </c>
-      <c r="E6" s="15">
+      <c r="E6" s="14">
         <f t="shared" si="1"/>
         <v>97.5</v>
       </c>
-      <c r="F6" s="15">
+      <c r="F6" s="14">
         <f t="shared" si="1"/>
         <v>130</v>
       </c>
-      <c r="G6" s="15">
+      <c r="G6" s="14">
         <f t="shared" si="1"/>
         <v>162.5</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="9">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="8">
         <v>13</v>
       </c>
-      <c r="B7" s="10">
+      <c r="B7" s="9">
         <v>765</v>
       </c>
-      <c r="C7" s="15">
+      <c r="C7" s="14">
         <f t="shared" si="1"/>
         <v>38.25</v>
       </c>
-      <c r="D7" s="15">
+      <c r="D7" s="14">
         <f t="shared" si="1"/>
         <v>76.5</v>
       </c>
-      <c r="E7" s="15">
+      <c r="E7" s="14">
         <f t="shared" si="1"/>
         <v>114.75</v>
       </c>
-      <c r="F7" s="15">
+      <c r="F7" s="14">
         <f t="shared" si="1"/>
         <v>153</v>
       </c>
-      <c r="G7" s="15">
+      <c r="G7" s="14">
         <f t="shared" si="1"/>
         <v>191.25</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="9">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="8">
         <v>14</v>
       </c>
-      <c r="B8" s="10">
+      <c r="B8" s="9">
         <v>820</v>
       </c>
-      <c r="C8" s="15">
+      <c r="C8" s="14">
         <f t="shared" si="1"/>
         <v>41</v>
       </c>
-      <c r="D8" s="15">
+      <c r="D8" s="14">
         <f t="shared" si="1"/>
         <v>82</v>
       </c>
-      <c r="E8" s="15">
+      <c r="E8" s="14">
         <f t="shared" si="1"/>
         <v>123</v>
       </c>
-      <c r="F8" s="15">
+      <c r="F8" s="14">
         <f t="shared" si="1"/>
         <v>164</v>
       </c>
-      <c r="G8" s="15">
+      <c r="G8" s="14">
         <f t="shared" si="1"/>
         <v>205</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="9">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="8">
         <v>15</v>
       </c>
-      <c r="B9" s="10">
+      <c r="B9" s="9">
         <v>971</v>
       </c>
-      <c r="C9" s="15">
+      <c r="C9" s="14">
         <f t="shared" si="1"/>
         <v>48.550000000000004</v>
       </c>
-      <c r="D9" s="15">
+      <c r="D9" s="14">
         <f t="shared" si="1"/>
         <v>97.100000000000009</v>
       </c>
-      <c r="E9" s="15">
+      <c r="E9" s="14">
         <f t="shared" si="1"/>
         <v>145.65</v>
       </c>
-      <c r="F9" s="15">
+      <c r="F9" s="14">
         <f t="shared" si="1"/>
         <v>194.20000000000002</v>
       </c>
-      <c r="G9" s="15">
+      <c r="G9" s="14">
         <f t="shared" si="1"/>
         <v>242.75</v>
       </c>
@@ -1098,231 +1421,231 @@
       <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.6640625" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" style="1"/>
-    <col min="4" max="4" width="11.5546875" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" customWidth="1"/>
-    <col min="6" max="6" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.85546875" style="1"/>
+    <col min="4" max="4" width="11.5703125" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" customWidth="1"/>
+    <col min="6" max="6" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="17" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="E1" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="F1" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="H1" s="32" t="s">
+      <c r="H1" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="I1" s="31" t="s">
+      <c r="I1" s="30" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="18" t="s">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="19">
+      <c r="B2" s="18">
         <v>17</v>
       </c>
-      <c r="C2" s="19">
+      <c r="C2" s="18">
         <v>11</v>
       </c>
-      <c r="D2" s="20">
+      <c r="D2" s="19">
         <f>Лист1!B5</f>
         <v>603</v>
       </c>
-      <c r="E2" s="21">
+      <c r="E2" s="20">
         <f>Лист1!E5</f>
         <v>90.45</v>
       </c>
-      <c r="F2" s="21">
+      <c r="F2" s="20">
         <f>SUM(D2,E2)</f>
         <v>693.45</v>
       </c>
-      <c r="H2" s="27" t="s">
+      <c r="H2" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="I2" s="28" t="s">
+      <c r="I2" s="27" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="18" t="s">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="19">
+      <c r="B3" s="18">
         <v>12</v>
       </c>
-      <c r="C3" s="19">
+      <c r="C3" s="18">
         <v>12</v>
       </c>
-      <c r="D3" s="20">
+      <c r="D3" s="19">
         <f>VLOOKUP(C3,Лист1!A:G,2,0)</f>
         <v>650</v>
       </c>
-      <c r="E3" s="21">
+      <c r="E3" s="20">
         <f>Лист1!D6</f>
         <v>65</v>
       </c>
-      <c r="F3" s="21">
+      <c r="F3" s="20">
         <f t="shared" ref="F3:F7" si="0">SUM(D3,E3)</f>
         <v>715</v>
       </c>
-      <c r="H3" s="27" t="s">
+      <c r="H3" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="I3" s="28" t="s">
+      <c r="I3" s="27" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="18" t="s">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="19">
+      <c r="B4" s="18">
         <v>8</v>
       </c>
-      <c r="C4" s="19">
+      <c r="C4" s="18">
         <v>10</v>
       </c>
-      <c r="D4" s="20">
+      <c r="D4" s="19">
         <f>VLOOKUP(C4,Лист1!A:G,2,0)</f>
         <v>560</v>
       </c>
-      <c r="E4" s="21">
+      <c r="E4" s="20">
         <f>Лист1!C4</f>
         <v>28</v>
       </c>
-      <c r="F4" s="21">
+      <c r="F4" s="20">
         <f t="shared" si="0"/>
         <v>588</v>
       </c>
-      <c r="H4" s="27" t="s">
+      <c r="H4" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="I4" s="28" t="s">
+      <c r="I4" s="27" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="18" t="s">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="19">
+      <c r="B5" s="18">
         <v>20</v>
       </c>
-      <c r="C5" s="19">
+      <c r="C5" s="18">
         <v>13</v>
       </c>
-      <c r="D5" s="20">
+      <c r="D5" s="19">
         <f>VLOOKUP(C5,Лист1!A:G,2,0)</f>
         <v>765</v>
       </c>
-      <c r="E5" s="21">
+      <c r="E5" s="20">
         <f>Лист1!E7</f>
         <v>114.75</v>
       </c>
-      <c r="F5" s="21">
+      <c r="F5" s="20">
         <f t="shared" si="0"/>
         <v>879.75</v>
       </c>
-      <c r="H5" s="27" t="s">
+      <c r="H5" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="I5" s="28" t="s">
+      <c r="I5" s="27" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="18" t="s">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="19">
+      <c r="B6" s="18">
         <v>5</v>
       </c>
-      <c r="C6" s="19">
+      <c r="C6" s="18">
         <v>10</v>
       </c>
-      <c r="D6" s="20">
+      <c r="D6" s="19">
         <f>VLOOKUP(C6,Лист1!A:G,2,0)</f>
         <v>560</v>
       </c>
-      <c r="E6" s="21">
+      <c r="E6" s="20">
         <f>Лист1!C4</f>
         <v>28</v>
       </c>
-      <c r="F6" s="21">
+      <c r="F6" s="20">
         <f t="shared" si="0"/>
         <v>588</v>
       </c>
-      <c r="H6" s="27" t="s">
+      <c r="H6" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="I6" s="28" t="s">
+      <c r="I6" s="27" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="18" t="s">
+    <row r="7" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="19">
+      <c r="B7" s="18">
         <v>25</v>
       </c>
-      <c r="C7" s="22">
+      <c r="C7" s="21">
         <v>15</v>
       </c>
-      <c r="D7" s="23">
+      <c r="D7" s="22">
         <f>VLOOKUP(C7,Лист1!A:G,2,0)</f>
         <v>971</v>
       </c>
-      <c r="E7" s="24">
+      <c r="E7" s="23">
         <f>Лист1!F9</f>
         <v>194.20000000000002</v>
       </c>
-      <c r="F7" s="24">
+      <c r="F7" s="23">
         <f t="shared" si="0"/>
         <v>1165.2</v>
       </c>
-      <c r="H7" s="29" t="s">
+      <c r="H7" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="I7" s="30" t="s">
+      <c r="I7" s="29" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C8" s="25" t="s">
+    <row r="8" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C8" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="26">
+      <c r="D8" s="25">
         <f>SUM(D2:D7)</f>
         <v>4109</v>
       </c>
-      <c r="E8" s="26">
+      <c r="E8" s="25">
         <f>SUM(E2:E7)</f>
         <v>520.4</v>
       </c>
-      <c r="F8" s="33">
+      <c r="F8" s="32">
         <f>SUM(Суммы)</f>
         <v>4629.3999999999996</v>
       </c>
@@ -1336,88 +1659,88 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09FCAC46-A87A-4A2B-BD49-54CD0D145E21}">
   <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28:F32"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="37">
+      <c r="B1" s="36">
         <v>150000</v>
       </c>
       <c r="C1" s="4"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B2" s="36">
+      <c r="B2" s="35">
         <v>5.5E-2</v>
       </c>
       <c r="C2" s="4"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="36">
+      <c r="B3" s="35">
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="C3" s="4"/>
     </row>
-    <row r="4" spans="1:5" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="10.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
-      <c r="B4" s="34"/>
+      <c r="B4" s="33"/>
       <c r="C4" s="4"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="8" t="s">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="B5" s="38" t="s">
+      <c r="B5" s="37" t="s">
         <v>47</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="E5" s="7" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B6" s="35">
+      <c r="B6" s="34">
         <v>149823</v>
       </c>
-      <c r="C6" s="35">
+      <c r="C6" s="34">
         <f>IF(B6&lt;$B$1,B6*$B$2,B6*$B$3)</f>
         <v>8240.2649999999994</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="E6" s="7" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B7" s="35">
+      <c r="B7" s="34">
         <v>162923</v>
       </c>
-      <c r="C7" s="35">
+      <c r="C7" s="34">
         <f t="shared" ref="C7:C15" si="0">IF(B7&lt;$B$1,B7*$B$2,B7*$B$3)</f>
         <v>12219.225</v>
       </c>
@@ -1426,68 +1749,68 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B8" s="35">
+      <c r="B8" s="34">
         <v>209123</v>
       </c>
-      <c r="C8" s="35">
+      <c r="C8" s="34">
         <f t="shared" si="0"/>
         <v>15684.224999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B9" s="35">
+      <c r="B9" s="34">
         <v>122354</v>
       </c>
-      <c r="C9" s="35">
+      <c r="C9" s="34">
         <f t="shared" si="0"/>
         <v>6729.47</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B10" s="35">
+      <c r="B10" s="34">
         <v>83351</v>
       </c>
-      <c r="C10" s="35">
+      <c r="C10" s="34">
         <f t="shared" si="0"/>
         <v>4584.3050000000003</v>
       </c>
-      <c r="E10" s="8" t="s">
+      <c r="E10" s="7" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B11" s="35">
+      <c r="B11" s="34">
         <v>204861</v>
       </c>
-      <c r="C11" s="35">
+      <c r="C11" s="34">
         <f t="shared" si="0"/>
         <v>15364.574999999999</v>
       </c>
-      <c r="E11" s="8" t="s">
+      <c r="E11" s="7" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="B12" s="35">
+      <c r="B12" s="34">
         <v>150000</v>
       </c>
-      <c r="C12" s="35">
+      <c r="C12" s="34">
         <f t="shared" si="0"/>
         <v>11250</v>
       </c>
@@ -1496,266 +1819,266 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="B13" s="35">
+      <c r="B13" s="34">
         <v>110500</v>
       </c>
-      <c r="C13" s="35">
+      <c r="C13" s="34">
         <f t="shared" si="0"/>
         <v>6077.5</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="B14" s="35">
+      <c r="B14" s="34">
         <v>220120</v>
       </c>
-      <c r="C14" s="35">
+      <c r="C14" s="34">
         <f t="shared" si="0"/>
         <v>16509</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="B15" s="35">
+      <c r="B15" s="34">
         <v>170450</v>
       </c>
-      <c r="C15" s="35">
+      <c r="C15" s="34">
         <f t="shared" si="0"/>
         <v>12783.75</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="9" t="s">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="B20" s="9" t="s">
+      <c r="B20" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="C20" s="9" t="s">
+      <c r="C20" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="E20" s="5" t="s">
+      <c r="E20" s="41" t="s">
         <v>62</v>
       </c>
-      <c r="F20" s="5"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F20" s="41"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>54</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="C21" s="16">
+      <c r="C21" s="15">
         <v>16350</v>
       </c>
-      <c r="E21" s="16" t="s">
+      <c r="E21" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="F21" s="16">
+      <c r="F21" s="15">
         <f>SUMIF(B21:B32,B21,C21:C32)</f>
         <v>127502</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>55</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="C22" s="16">
+      <c r="C22" s="15">
         <v>14586</v>
       </c>
-      <c r="E22" s="16" t="s">
+      <c r="E22" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="F22" s="16">
+      <c r="F22" s="15">
         <f>SUMIF(B21:B32,B22,C21:C32)</f>
         <v>57111</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>54</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="C23" s="16">
+      <c r="C23" s="15">
         <v>26874</v>
       </c>
-      <c r="E23" s="16" t="s">
+      <c r="E23" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="F23" s="16">
+      <c r="F23" s="15">
         <f>SUMIF(B21:B32,B23,C21:C32)</f>
         <v>134039</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>55</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="C24" s="16">
+      <c r="C24" s="15">
         <v>8541</v>
       </c>
-      <c r="E24" s="16" t="s">
+      <c r="E24" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="F24" s="16">
+      <c r="F24" s="15">
         <f>SUMIF(B21:B32,B24,C21:C32)</f>
         <v>22119</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>56</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="C25" s="16">
+      <c r="C25" s="15">
         <v>96574</v>
       </c>
-      <c r="E25" s="40" t="s">
+      <c r="E25" s="39" t="s">
         <v>63</v>
       </c>
-      <c r="F25" s="40">
+      <c r="F25" s="39">
         <f>SUM(F21:F24)</f>
         <v>340771</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>54</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="C26" s="16">
+      <c r="C26" s="15">
         <v>6584</v>
       </c>
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>55</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="C27" s="16">
+      <c r="C27" s="15">
         <v>32584</v>
       </c>
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>56</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="C28" s="16">
+      <c r="C28" s="15">
         <v>7894</v>
       </c>
-      <c r="E28" s="41" t="s">
+      <c r="E28" s="42" t="s">
         <v>64</v>
       </c>
-      <c r="F28" s="41"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F28" s="42"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>55</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="C29" s="16">
+      <c r="C29" s="15">
         <v>14578</v>
       </c>
-      <c r="E29" s="16" t="s">
+      <c r="E29" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="F29" s="16">
+      <c r="F29" s="15">
         <f>SUMIF(A21:A32,"Январь",C21:C32)</f>
         <v>55492</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>56</v>
       </c>
       <c r="B30" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="C30" s="16">
+      <c r="C30" s="15">
         <v>35941</v>
       </c>
-      <c r="E30" s="16" t="s">
+      <c r="E30" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="F30" s="16">
+      <c r="F30" s="15">
         <f>SUMIF(A21:A32,"Февраль",C21:C32)</f>
         <v>70289</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>56</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="C31" s="16">
+      <c r="C31" s="15">
         <v>74581</v>
       </c>
-      <c r="E31" s="16" t="s">
+      <c r="E31" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="F31" s="16">
+      <c r="F31" s="15">
         <f>SUMIF(A21:A32,"Март",C21:C32)</f>
         <v>214990</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
         <v>54</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="C32" s="16">
+      <c r="C32" s="15">
         <v>5684</v>
       </c>
-      <c r="E32" s="40" t="s">
+      <c r="E32" s="39" t="s">
         <v>63</v>
       </c>
-      <c r="F32" s="40">
+      <c r="F32" s="39">
         <f>SUM(F29:F31)</f>
         <v>340771</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="4"/>
-      <c r="B33" s="8" t="s">
+      <c r="B33" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C33" s="39">
+      <c r="C33" s="38">
         <f>SUM(C21:C32)</f>
         <v>340771</v>
       </c>
@@ -1768,18 +2091,891 @@
     <mergeCell ref="E28:F28"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
+  <conditionalFormatting sqref="B6:B15">
+    <cfRule type="cellIs" dxfId="6" priority="1" operator="greaterThan">
+      <formula>150000</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="2" operator="equal">
+      <formula>150000</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="3" operator="lessThan">
+      <formula>150000</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="greaterThan">
+      <formula>150000</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD32A78E-85F4-4CAB-B3D9-FF70D03E4302}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="E2" s="15">
+        <v>5730</v>
+      </c>
+      <c r="F2" s="15">
+        <f>IF(E2&gt;5000,E2/100*20,E2/100*15)</f>
+        <v>1146</v>
+      </c>
+      <c r="G2" s="43">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="E3" s="15">
+        <v>6250</v>
+      </c>
+      <c r="F3" s="15">
+        <f t="shared" ref="F3:F12" si="0">IF(E3&gt;5000,E3/100*20,E3/100*15)</f>
+        <v>1250</v>
+      </c>
+      <c r="G3" s="43">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="E4" s="15">
+        <v>4890</v>
+      </c>
+      <c r="F4" s="15">
+        <f t="shared" si="0"/>
+        <v>733.5</v>
+      </c>
+      <c r="G4" s="12"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="E5" s="15">
+        <v>5800</v>
+      </c>
+      <c r="F5" s="15">
+        <f t="shared" si="0"/>
+        <v>1160</v>
+      </c>
+      <c r="G5" s="12"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="E6" s="15">
+        <v>6520</v>
+      </c>
+      <c r="F6" s="15">
+        <f t="shared" si="0"/>
+        <v>1304</v>
+      </c>
+      <c r="G6" s="12"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="E7" s="15">
+        <v>6520</v>
+      </c>
+      <c r="F7" s="15">
+        <f t="shared" si="0"/>
+        <v>1304</v>
+      </c>
+      <c r="G7" s="12"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="E8" s="15">
+        <v>5730</v>
+      </c>
+      <c r="F8" s="15">
+        <f t="shared" si="0"/>
+        <v>1146</v>
+      </c>
+      <c r="G8" s="12"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="E9" s="15">
+        <v>4970</v>
+      </c>
+      <c r="F9" s="15">
+        <f t="shared" si="0"/>
+        <v>745.5</v>
+      </c>
+      <c r="G9" s="12"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="E10" s="15">
+        <v>5940</v>
+      </c>
+      <c r="F10" s="15">
+        <f t="shared" si="0"/>
+        <v>1188</v>
+      </c>
+      <c r="G10" s="12"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="E11" s="15">
+        <v>5730</v>
+      </c>
+      <c r="F11" s="15">
+        <f t="shared" si="0"/>
+        <v>1146</v>
+      </c>
+      <c r="G11" s="12"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="E12" s="14">
+        <f>SUM(E2:E11)</f>
+        <v>58080</v>
+      </c>
+      <c r="F12" s="15">
+        <f>SUM(F2:F11)</f>
+        <v>11123</v>
+      </c>
+      <c r="G12" s="12"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="12"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="40" t="s">
+        <v>96</v>
+      </c>
+      <c r="B14" s="40"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="40" t="s">
+        <v>98</v>
+      </c>
+      <c r="E14" s="40"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="44" t="s">
+        <v>91</v>
+      </c>
+      <c r="B15" s="4">
+        <f>COUNTIF($D$2:$D$11,A15)</f>
+        <v>3</v>
+      </c>
+      <c r="C15" s="12"/>
+      <c r="D15" s="44" t="s">
+        <v>91</v>
+      </c>
+      <c r="E15" s="15">
+        <f>SUMIF(D2:D11,D15,E2:E11)</f>
+        <v>17980</v>
+      </c>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="44" t="s">
+        <v>92</v>
+      </c>
+      <c r="B16" s="4">
+        <f t="shared" ref="B16:B18" si="1">COUNTIF($D$2:$D$11,A16)</f>
+        <v>2</v>
+      </c>
+      <c r="C16" s="12"/>
+      <c r="D16" s="44" t="s">
+        <v>92</v>
+      </c>
+      <c r="E16" s="15">
+        <f t="shared" ref="E16:E18" si="2">SUMIF(D3:D12,D16,E3:E12)</f>
+        <v>11980</v>
+      </c>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="44" t="s">
+        <v>93</v>
+      </c>
+      <c r="B17" s="4">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="C17" s="12"/>
+      <c r="D17" s="44" t="s">
+        <v>93</v>
+      </c>
+      <c r="E17" s="15">
+        <f t="shared" si="2"/>
+        <v>16630</v>
+      </c>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="44" t="s">
+        <v>94</v>
+      </c>
+      <c r="B18" s="4">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="C18" s="12"/>
+      <c r="D18" s="44" t="s">
+        <v>94</v>
+      </c>
+      <c r="E18" s="15">
+        <f t="shared" si="2"/>
+        <v>11490</v>
+      </c>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="44"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="45" t="s">
+        <v>18</v>
+      </c>
+      <c r="E19" s="15">
+        <f>SUM(E15:E18)</f>
+        <v>58080</v>
+      </c>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="44" t="s">
+        <v>97</v>
+      </c>
+      <c r="B20" s="4">
+        <f>COUNTIF(E2:E11,A20)</f>
+        <v>3</v>
+      </c>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="44" t="s">
+        <v>75</v>
+      </c>
+      <c r="B21" s="4">
+        <f>COUNTIF(B2:B11,A21)</f>
+        <v>3</v>
+      </c>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="12"/>
+      <c r="B22" s="12"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="12"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="12"/>
+      <c r="B23" s="12"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="12"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="12"/>
+      <c r="B24" s="12"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="12"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="12"/>
+      <c r="B25" s="12"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="12"/>
+      <c r="G25" s="12"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="12"/>
+      <c r="B26" s="12"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="12"/>
+      <c r="G26" s="12"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="A14:B14"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97D50997-9017-4A19-B0AE-838B8AEC395F}">
+  <dimension ref="A1:E7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="40" t="s">
+        <v>99</v>
+      </c>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="7"/>
+      <c r="B2" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="B3" s="46">
+        <v>45000</v>
+      </c>
+      <c r="C3" s="46">
+        <v>35000</v>
+      </c>
+      <c r="D3" s="46">
+        <v>-1000</v>
+      </c>
+      <c r="E3" s="46">
+        <v>-7000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="B4" s="46">
+        <v>-50000</v>
+      </c>
+      <c r="C4" s="46">
+        <v>0</v>
+      </c>
+      <c r="D4" s="46">
+        <v>-35000</v>
+      </c>
+      <c r="E4" s="46">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="B5" s="46">
+        <v>20000</v>
+      </c>
+      <c r="C5" s="46">
+        <v>15000</v>
+      </c>
+      <c r="D5" s="46">
+        <v>10000</v>
+      </c>
+      <c r="E5" s="46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B6" s="46">
+        <v>-10000</v>
+      </c>
+      <c r="C6" s="46">
+        <v>-24000</v>
+      </c>
+      <c r="D6" s="46">
+        <v>2000</v>
+      </c>
+      <c r="E6" s="46">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="B7" s="46">
+        <v>0</v>
+      </c>
+      <c r="C7" s="46">
+        <v>-3000</v>
+      </c>
+      <c r="D7" s="46">
+        <v>6000</v>
+      </c>
+      <c r="E7" s="46">
+        <v>2000</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:E1"/>
+  </mergeCells>
+  <conditionalFormatting sqref="B3:E7">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="lessThan">
+      <formula>-2000</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThan">
+      <formula>30000</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="3" operator="lessThan">
+      <formula>10000</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F522BA30-F3E4-41F3-96B4-51B6C4E192C9}">
+  <dimension ref="A1:E14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="5" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="47" t="s">
+        <v>109</v>
+      </c>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="39" t="s">
+        <v>53</v>
+      </c>
+      <c r="B2" s="39" t="s">
+        <v>119</v>
+      </c>
+      <c r="C2" s="39" t="s">
+        <v>120</v>
+      </c>
+      <c r="D2" s="39" t="s">
+        <v>121</v>
+      </c>
+      <c r="E2" s="39" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="B3" s="15">
+        <v>20000</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>123</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="E3" s="15">
+        <v>-7000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>123</v>
+      </c>
+      <c r="C4" s="15">
+        <v>0</v>
+      </c>
+      <c r="D4" s="15">
+        <v>25000</v>
+      </c>
+      <c r="E4" s="15">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="B5" s="15">
+        <v>10000</v>
+      </c>
+      <c r="C5" s="15">
+        <v>17000</v>
+      </c>
+      <c r="D5" s="15">
+        <v>10000</v>
+      </c>
+      <c r="E5" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="B6" s="15">
+        <v>0</v>
+      </c>
+      <c r="C6" s="15">
+        <v>-4000</v>
+      </c>
+      <c r="D6" s="15">
+        <v>-2000</v>
+      </c>
+      <c r="E6" s="48" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="B7" s="15">
+        <v>-22500</v>
+      </c>
+      <c r="C7" s="15">
+        <v>-3000</v>
+      </c>
+      <c r="D7" s="15">
+        <v>3500</v>
+      </c>
+      <c r="E7" s="15">
+        <v>-9500</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="B8" s="15">
+        <v>-32000</v>
+      </c>
+      <c r="C8" s="15">
+        <v>5400</v>
+      </c>
+      <c r="D8" s="15">
+        <v>1700</v>
+      </c>
+      <c r="E8" s="15">
+        <v>13000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="B9" s="15">
+        <v>41500</v>
+      </c>
+      <c r="C9" s="15">
+        <v>-2300</v>
+      </c>
+      <c r="D9" s="15">
+        <v>-100</v>
+      </c>
+      <c r="E9" s="15">
+        <v>16500</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="B10" s="15">
+        <v>51000</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="D10" s="15">
+        <v>-1900</v>
+      </c>
+      <c r="E10" s="15">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="B11" s="15">
+        <v>0</v>
+      </c>
+      <c r="C11" s="15">
+        <v>-9060</v>
+      </c>
+      <c r="D11" s="15">
+        <v>-3700</v>
+      </c>
+      <c r="E11" s="15">
+        <v>-23500</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="B12" s="15">
+        <v>-17000</v>
+      </c>
+      <c r="C12" s="15">
+        <v>11980</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>123</v>
+      </c>
+      <c r="E12" s="15">
+        <v>27000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="B13" s="15">
+        <v>-9500</v>
+      </c>
+      <c r="C13" s="15">
+        <v>14900</v>
+      </c>
+      <c r="D13" s="15">
+        <v>-7300</v>
+      </c>
+      <c r="E13" s="15" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="B14" s="15">
+        <v>9000</v>
+      </c>
+      <c r="C14" s="15">
+        <v>-17820</v>
+      </c>
+      <c r="D14" s="15">
+        <v>0</v>
+      </c>
+      <c r="E14" s="15">
+        <v>-34000</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:E1"/>
+  </mergeCells>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>